--- a/TaRGET_metadata_template_V2.0.2.xlsx
+++ b/TaRGET_metadata_template_V2.0.2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Xiaoyu/GitHub/target_submission/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="35580" windowHeight="17200" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,15 @@
     <sheet name="Reagent" sheetId="11" r:id="rId11"/>
     <sheet name="File" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -79,6 +92,19 @@
             <family val="2"/>
           </rPr>
           <t>Description of number of samples, replicates, controls, etc.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to Lab accession</t>
         </r>
       </text>
     </comment>
@@ -209,6 +235,58 @@
         </r>
       </text>
     </comment>
+    <comment ref="AC2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to File accession</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to File accession (if applicable)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to an existing Experiment accession (should start with TRGTEXP...)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assay sequenced in this file (link to Assay accession)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -271,6 +349,45 @@
         </r>
       </text>
     </comment>
+    <comment ref="L2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to Bioproject accession</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to Mouse accession</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to Mouse accession</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -398,6 +515,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to Litter accession</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary diet (link to Diet accession)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Exposure regimen (link to Treatment accession)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to Bioproject accession</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to Mouse accession</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to Mouse accession</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -561,6 +756,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="S2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to Diet accession (if applicable)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -688,6 +896,58 @@
         </r>
       </text>
     </comment>
+    <comment ref="P2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to Mouse accession</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to Biosample accession (if applicable)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to Biosample accessions (if applicable)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>For surrogate tissues, link to the target tissue (Biosample, if applicable)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -776,6 +1036,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Biosample from which nucleic acid was extracted (link to Biosample accession)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to Library accession (if applicable)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -851,6 +1137,71 @@
         </r>
       </text>
     </comment>
+    <comment ref="M2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to Reagent accession (if applicable)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cell population on which assay was performed (if applicable); link to Biosample accession</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nucleic acid extraction on which assay was performed (if applicable); Link to Library accession</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to Assay accession</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Link to Assay accession</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1730,8 +2081,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1762,7 +2113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1781,6 +2132,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1796,16 +2153,21 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1852,12 +2214,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1884,14 +2246,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1918,6 +2281,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2093,29 +2457,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2126,60 +2490,60 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="30.7109375" customWidth="1"/>
-    <col min="12" max="16" width="15.7109375" customWidth="1"/>
+    <col min="1" max="11" width="30.6640625" customWidth="1"/>
+    <col min="12" max="16" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -2807,60 +3171,60 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="30.7109375" customWidth="1"/>
-    <col min="11" max="12" width="15.7109375" customWidth="1"/>
+    <col min="1" max="10" width="30.6640625" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3323,108 +3687,108 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="28" width="30.7109375" customWidth="1"/>
-    <col min="28" max="31" width="15.7109375" customWidth="1"/>
+    <col min="1" max="27" width="30.6640625" customWidth="1"/>
+    <col min="28" max="31" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="3" t="s">
         <v>240</v>
       </c>
       <c r="AC2" s="4" t="s">
@@ -4349,94 +4713,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="45.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -4489,7 +4853,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4539,7 +4903,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -4580,7 +4944,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4615,7 +4979,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -4644,7 +5008,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -4673,7 +5037,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -4696,7 +5060,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -4716,7 +5080,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>48</v>
       </c>
@@ -4736,7 +5100,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>49</v>
       </c>
@@ -4753,7 +5117,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>50</v>
       </c>
@@ -4767,137 +5131,137 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="9:9">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="9:9">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="9:9">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="9:9">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="9:9">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="9:9">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="9:9">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="9:9">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="9:9">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="9:9">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="9:9">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="9:9">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="9:9">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="9:9">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I30" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="9:9">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I31" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="9:9">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I32" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="9:9">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="9:9">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I34" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="9:9">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="9:9">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I36" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="9:9">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I37" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="9:9">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I38" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="9:9">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I39" t="s">
         <v>143</v>
       </c>
@@ -4908,39 +5272,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -4954,57 +5318,57 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="30.7109375" customWidth="1"/>
-    <col min="11" max="13" width="15.7109375" customWidth="1"/>
+    <col min="1" max="10" width="30.6640625" customWidth="1"/>
+    <col min="11" max="13" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -5024,72 +5388,72 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="30.7109375" customWidth="1"/>
-    <col min="16" max="21" width="15.7109375" customWidth="1"/>
+    <col min="1" max="15" width="30.6640625" customWidth="1"/>
+    <col min="16" max="21" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -5870,48 +6234,48 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="30.7109375" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6074,78 +6438,78 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="30.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" customWidth="1"/>
+    <col min="1" max="17" width="30.6640625" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="S2" s="4" t="s">
@@ -7211,69 +7575,71 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="15" width="30.7109375" customWidth="1"/>
-    <col min="15" max="18" width="15.7109375" customWidth="1"/>
+    <col min="1" max="14" width="30.6640625" customWidth="1"/>
+    <col min="15" max="18" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P2" s="4" t="s">
@@ -7748,54 +8114,54 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="30.7109375" customWidth="1"/>
-    <col min="10" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="4" t="s">
